--- a/Output-Warehouse Layout.xlsx
+++ b/Output-Warehouse Layout.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Run 2" sheetId="2" r:id="rId2"/>
     <sheet name="Run 3" sheetId="3" r:id="rId3"/>
     <sheet name="Run 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Unassigned Parts" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="134">
   <si>
     <t>Column
 1</t>
@@ -121,12 +122,12 @@
   </si>
   <si>
     <t>5 -&gt;
-TC3154150G01
-× 2</t>
+TC3163995G01
+× 4</t>
   </si>
   <si>
     <t>18 -&gt;
-TC3156786G04
+TC3157716G02
 × 2</t>
   </si>
   <si>
@@ -136,7 +137,7 @@
   </si>
   <si>
     <t>19 -&gt;
-TC3157716G02
+TC3156786G04
 × 2</t>
   </si>
   <si>
@@ -201,8 +202,8 @@
   </si>
   <si>
     <t>25 -&gt;
-TC3163995G01
-× 4</t>
+TC2267D80G01
+× 6</t>
   </si>
   <si>
     <t>35 -&gt;
@@ -211,8 +212,8 @@
   </si>
   <si>
     <t>26 -&gt;
-TC2267D80G01
-× 6</t>
+TC3164567G01
+× 4</t>
   </si>
   <si>
     <t>36 -&gt;
@@ -286,7 +287,7 @@
   </si>
   <si>
     <t>52 -&gt;
-TC3154448G04
+TC3051575H06
 × 2</t>
   </si>
   <si>
@@ -296,7 +297,7 @@
   </si>
   <si>
     <t>53 -&gt;
-TC3051575H06
+TC2267D80G01
 × 2</t>
   </si>
   <si>
@@ -351,8 +352,8 @@
   </si>
   <si>
     <t>49 -&gt;
-TC3164567G01
-× 2</t>
+TC3154150G01
+× 1</t>
   </si>
   <si>
     <t>59 -&gt;
@@ -361,8 +362,8 @@
   </si>
   <si>
     <t>50 -&gt;
-TC3164567G01
-× 2</t>
+TC3154150G01
+× 1</t>
   </si>
   <si>
     <t>60 -&gt;
@@ -380,7 +381,7 @@
   </si>
   <si>
     <t>70 -&gt;
-TC2267D80G01
+TC3154448G04
 × 2</t>
   </si>
   <si>
@@ -450,8 +451,8 @@
   </si>
   <si>
     <t>84 -&gt;
-TC3154869G01
-× 2</t>
+TC3156782G10
+× 1</t>
   </si>
   <si>
     <t>75 -&gt;
@@ -480,8 +481,8 @@
   </si>
   <si>
     <t>86 -&gt;
-TC3156782G10
-× 1</t>
+TC3154869G01
+× 2</t>
   </si>
   <si>
     <t>77 -&gt;
@@ -507,6 +508,105 @@
     <t>69 -&gt;
 TC3051366G01
 × 8</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Unassigned Qty</t>
+  </si>
+  <si>
+    <t>TC3153163G01</t>
+  </si>
+  <si>
+    <t>TC3157716G02</t>
+  </si>
+  <si>
+    <t>TC3154873G01</t>
+  </si>
+  <si>
+    <t>TC3154150G01</t>
+  </si>
+  <si>
+    <t>TC3051372G01</t>
+  </si>
+  <si>
+    <t>TC3154146G02</t>
+  </si>
+  <si>
+    <t>TC3161942G01</t>
+  </si>
+  <si>
+    <t>TC3164567G01</t>
+  </si>
+  <si>
+    <t>TC3154448G04</t>
+  </si>
+  <si>
+    <t>TC3156782G10</t>
+  </si>
+  <si>
+    <t>TC3156786G04</t>
+  </si>
+  <si>
+    <t>TC3163995G01</t>
+  </si>
+  <si>
+    <t>TC3158514H01</t>
+  </si>
+  <si>
+    <t>TC3154869G01</t>
+  </si>
+  <si>
+    <t>TC3161970G01</t>
+  </si>
+  <si>
+    <t>TC3161969G01</t>
+  </si>
+  <si>
+    <t>TC3051576H03</t>
+  </si>
+  <si>
+    <t>TC3051575H06</t>
+  </si>
+  <si>
+    <t>TC3051367G01</t>
+  </si>
+  <si>
+    <t>TC3051366G01</t>
+  </si>
+  <si>
+    <t>TC3051909G01</t>
+  </si>
+  <si>
+    <t>TC2267D80G01</t>
+  </si>
+  <si>
+    <t>TC3153165G01</t>
+  </si>
+  <si>
+    <t>TC3158301H01</t>
+  </si>
+  <si>
+    <t>TC3156091G01</t>
+  </si>
+  <si>
+    <t>TC3159603G01</t>
+  </si>
+  <si>
+    <t>TC3159602G01</t>
+  </si>
+  <si>
+    <t>TC3151528G01</t>
+  </si>
+  <si>
+    <t>TC3159601G01</t>
+  </si>
+  <si>
+    <t>TC3792C11H03</t>
+  </si>
+  <si>
+    <t>TC3151609G01</t>
   </si>
 </sst>
 </file>
@@ -1359,4 +1459,273 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Output-Warehouse Layout.xlsx
+++ b/Output-Warehouse Layout.xlsx
@@ -87,7 +87,7 @@
   </si>
   <si>
     <t>14 -&gt;
-TC3154448G04
+TC3051575H06
 × 2</t>
   </si>
   <si>
@@ -122,8 +122,8 @@
   </si>
   <si>
     <t>5 -&gt;
-TC3163995G01
-× 4</t>
+TC3154150G01
+× 2</t>
   </si>
   <si>
     <t>18 -&gt;
@@ -287,7 +287,7 @@
   </si>
   <si>
     <t>52 -&gt;
-TC3051575H06
+TC3154448G04
 × 2</t>
   </si>
   <si>
@@ -297,7 +297,7 @@
   </si>
   <si>
     <t>53 -&gt;
-TC2267D80G01
+TC3154448G04
 × 2</t>
   </si>
   <si>
@@ -342,8 +342,8 @@
   </si>
   <si>
     <t>48 -&gt;
-TC3154150G01
-× 1</t>
+TC3792C11H03
+× 4</t>
   </si>
   <si>
     <t>58 -&gt;
@@ -352,7 +352,7 @@
   </si>
   <si>
     <t>49 -&gt;
-TC3154150G01
+TC3163995G01
 × 1</t>
   </si>
   <si>
@@ -381,7 +381,7 @@
   </si>
   <si>
     <t>70 -&gt;
-TC3154448G04
+TC2267D80G01
 × 2</t>
   </si>
   <si>
@@ -446,13 +446,13 @@
   </si>
   <si>
     <t>65 -&gt;
-TC3792C11H03
-× 4</t>
+TC3163995G01
+× 3</t>
   </si>
   <si>
     <t>84 -&gt;
-TC3156782G10
-× 1</t>
+TC3154869G01
+× 2</t>
   </si>
   <si>
     <t>75 -&gt;
@@ -481,8 +481,8 @@
   </si>
   <si>
     <t>86 -&gt;
-TC3154869G01
-× 2</t>
+TC3156782G10
+× 1</t>
   </si>
   <si>
     <t>77 -&gt;
